--- a/data/Artedi-Temperature-Larval-Survival.xlsx
+++ b/data/Artedi-Temperature-Larval-Survival.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taylor/SynologyDrive/Cisco-Climate-Change/Coregonine-Larvae-ThermalChallenge/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BCB944A-E15A-2C4D-AAA2-BB25D59C5E7A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F16D164-F797-2041-A791-527706E3ED3E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7420" yWindow="500" windowWidth="21000" windowHeight="17660" xr2:uid="{B80D898D-5AC0-EB43-AB0A-DE9881593618}"/>
   </bookViews>
@@ -455,7 +455,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -510,7 +510,7 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -531,7 +531,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -552,7 +552,7 @@
         <v>18</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -615,7 +615,7 @@
         <v>19</v>
       </c>
       <c r="B8">
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
@@ -636,7 +636,7 @@
         <v>19</v>
       </c>
       <c r="B9">
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
@@ -657,7 +657,7 @@
         <v>19</v>
       </c>
       <c r="B10">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
@@ -678,7 +678,7 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="C11" t="s">
         <v>16</v>
@@ -699,7 +699,7 @@
         <v>19</v>
       </c>
       <c r="B12">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
@@ -720,7 +720,7 @@
         <v>19</v>
       </c>
       <c r="B13">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="C13" t="s">
         <v>15</v>

--- a/data/Artedi-Temperature-Larval-Survival.xlsx
+++ b/data/Artedi-Temperature-Larval-Survival.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taylor/SynologyDrive/Cisco-Climate-Change/Coregonine-Larvae-ThermalChallenge/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taylor/SynologyDrive/Cisco-Climate-Change/Coregonine-Temp-Larvae/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F16D164-F797-2041-A791-527706E3ED3E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B0C14A8-3419-4F4B-BD98-ABE760AA6790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7420" yWindow="500" windowWidth="21000" windowHeight="17660" xr2:uid="{B80D898D-5AC0-EB43-AB0A-DE9881593618}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="46">
   <si>
     <t>population</t>
   </si>
@@ -93,6 +93,84 @@
   </si>
   <si>
     <t>Ontario</t>
+  </si>
+  <si>
+    <t>#/////////////////////////////////////</t>
+  </si>
+  <si>
+    <t># -----START OF METADATA -----</t>
+  </si>
+  <si>
+    <t># ------------------------------------------------</t>
+  </si>
+  <si>
+    <t># TITLE: Larvae morphological data from Lake Superior cisco.</t>
+  </si>
+  <si>
+    <t># DATE: 16-Sept-2020</t>
+  </si>
+  <si>
+    <t># AUTHOR: Taylor R. Stewart</t>
+  </si>
+  <si>
+    <t># AUTHOR EMAIL: taylor.stewart@uvm.edu</t>
+  </si>
+  <si>
+    <t># AUTHOR ADDRESS: 3 College St, Burlington VT, 05401 USA</t>
+  </si>
+  <si>
+    <t># AUTHOR WEBSITE: https://taylorstewart.github.io/</t>
+  </si>
+  <si>
+    <t># OWNERSHIP: Taylor R. Stewart</t>
+  </si>
+  <si>
+    <t># COLLABORATORS: Mark R. Vinson and Jason D. Stockwell</t>
+  </si>
+  <si>
+    <t># FUNDING SOURCES: USGS #G17AC00042; USGS #G16AP00087; Funds made available to Lake Champlain by Senator Patrick Leahy through the Great Lakes Fishery Commission</t>
+  </si>
+  <si>
+    <t># REPOSITORY: https://github.com/taylorstewart/Stewart-et-al-2021---Coregonine-Temp-Larvae</t>
+  </si>
+  <si>
+    <t># CITATIONS: https://doi.org/10.1101/2021.07.01.450800</t>
+  </si>
+  <si>
+    <t># SAMPLING TIMES: Nov-Dec. 2019</t>
+  </si>
+  <si>
+    <t># VARIABLE DESCRIPTION:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  # population: name of adult spawning population</t>
+  </si>
+  <si>
+    <t># ----- END OF METADATA -----</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t># ----- START OF DATA -----</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  # treatment: temperature treatment; °C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  # larval.tank: tank ID that larvae were reared in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  # hatched.larvae: number of initial larvae at hatch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  # 60.larvae: number of larvae after 60-days post-hatching</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  # larval.survival: percentage of larvae survived after 60 days</t>
+  </si>
+  <si>
+    <t># SAMPLING LOCATIONS: Lake Superior, Apostle Islands; Lake Ontario, Chaumont Bay</t>
   </si>
 </sst>
 </file>
@@ -108,18 +186,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -134,9 +206,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -452,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55803056-8C3D-FF45-B883-ACA7840C21DD}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -464,274 +535,434 @@
     <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B33" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C33" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D33" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E33" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F33" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2">
+      <c r="B34" s="1">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C34" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2">
+      <c r="D34" s="1">
         <v>652</v>
       </c>
-      <c r="E2">
+      <c r="E34" s="1">
         <v>252</v>
       </c>
-      <c r="F2">
-        <f>(E2/D2)*100</f>
+      <c r="F34" s="1">
+        <f>(E34/D34)*100</f>
         <v>38.650306748466257</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B3">
+      <c r="B35" s="1">
         <v>4.4000000000000004</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C35" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3">
+      <c r="D35" s="1">
         <v>610</v>
       </c>
-      <c r="E3">
+      <c r="E35" s="1">
         <v>108</v>
       </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F13" si="0">(E3/D3)*100</f>
+      <c r="F35" s="1">
+        <f t="shared" ref="F35:F45" si="0">(E35/D35)*100</f>
         <v>17.704918032786885</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B4">
+      <c r="B36" s="1">
         <v>6.9</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C36" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4">
+      <c r="D36" s="1">
         <v>624</v>
       </c>
-      <c r="E4">
+      <c r="E36" s="1">
         <v>7</v>
       </c>
-      <c r="F4">
+      <c r="F36" s="1">
         <f t="shared" si="0"/>
         <v>1.1217948717948718</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B5">
+      <c r="B37" s="1">
         <v>8.9</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C37" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D5">
+      <c r="D37" s="1">
         <v>446</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E37" s="1">
         <v>24</v>
       </c>
-      <c r="F5">
+      <c r="F37" s="1">
         <f t="shared" si="0"/>
         <v>5.3811659192825116</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B6">
+      <c r="B38" s="1">
         <v>2</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C38" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D6">
+      <c r="D38" s="1">
         <v>1017</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E38" s="1">
         <v>377</v>
       </c>
-      <c r="F6">
+      <c r="F38" s="1">
         <f t="shared" si="0"/>
         <v>37.069813176007862</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B7">
+      <c r="B39" s="1">
         <v>2</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C39" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D7">
+      <c r="D39" s="1">
         <v>1004</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E39" s="1">
         <v>498</v>
       </c>
-      <c r="F7">
+      <c r="F39" s="1">
         <f t="shared" si="0"/>
         <v>49.601593625498012</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B8">
+      <c r="B40" s="1">
         <v>4.4000000000000004</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C40" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D8">
+      <c r="D40" s="1">
         <v>988</v>
       </c>
-      <c r="E8">
+      <c r="E40" s="1">
         <v>306</v>
       </c>
-      <c r="F8">
+      <c r="F40" s="1">
         <f t="shared" si="0"/>
         <v>30.971659919028337</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B9">
+      <c r="B41" s="1">
         <v>4.4000000000000004</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C41" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D9">
+      <c r="D41" s="1">
         <v>994</v>
       </c>
-      <c r="E9">
+      <c r="E41" s="1">
         <v>394</v>
       </c>
-      <c r="F9">
+      <c r="F41" s="1">
         <f t="shared" si="0"/>
         <v>39.637826961770621</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B10">
+      <c r="B42" s="1">
         <v>6.9</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C42" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D10">
+      <c r="D42" s="1">
         <v>946</v>
       </c>
-      <c r="E10">
+      <c r="E42" s="1">
         <v>118</v>
       </c>
-      <c r="F10">
+      <c r="F42" s="1">
         <f t="shared" si="0"/>
         <v>12.473572938689218</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B11">
+      <c r="B43" s="1">
         <v>6.9</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C43" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D11">
+      <c r="D43" s="1">
         <v>955</v>
       </c>
-      <c r="E11">
+      <c r="E43" s="1">
         <v>117</v>
       </c>
-      <c r="F11">
+      <c r="F43" s="1">
         <f t="shared" si="0"/>
         <v>12.25130890052356</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B12">
+      <c r="B44" s="1">
         <v>8.9</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C44" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D12">
+      <c r="D44" s="1">
         <v>610</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E44" s="1">
         <v>15</v>
       </c>
-      <c r="F12">
+      <c r="F44" s="1">
         <f t="shared" si="0"/>
         <v>2.459016393442623</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B13">
+      <c r="B45" s="1">
         <v>8.9</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C45" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D13">
+      <c r="D45" s="1">
         <v>759</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E45" s="1">
         <v>20</v>
       </c>
-      <c r="F13">
+      <c r="F45" s="1">
         <f t="shared" si="0"/>
         <v>2.6350461133069829</v>
       </c>
